--- a/ISA/laa_out/laa_report_2025-11.xlsx
+++ b/ISA/laa_out/laa_report_2025-11.xlsx
@@ -493,7 +493,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>현재 타이밍 자산: QQQ  |  기준일: 2025-08-31</t>
+          <t>현재 타이밍 자산: QQQ  |  기준일: 2025-09-30</t>
         </is>
       </c>
     </row>
@@ -665,19 +665,19 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="n">
-        <v>42277</v>
+        <v>42308</v>
       </c>
       <c r="B4" s="7" t="n">
-        <v>1920.030029296875</v>
+        <v>2079.360107421875</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>2063.547152099609</v>
+        <v>2061.587601928711</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.05</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05441666666666666</v>
+        <v>0.05383333333333333</v>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
@@ -687,19 +687,19 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="n">
-        <v>42308</v>
+        <v>42338</v>
       </c>
       <c r="B5" s="7" t="n">
-        <v>2079.360107421875</v>
+        <v>2080.409912109375</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>2061.587601928711</v>
+        <v>2065.180200805664</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05383333333333333</v>
+        <v>0.05325</v>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
@@ -709,19 +709,19 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="n">
-        <v>42338</v>
+        <v>42369</v>
       </c>
       <c r="B6" s="7" t="n">
-        <v>2080.409912109375</v>
+        <v>2043.93994140625</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>2065.180200805664</v>
+        <v>2061.148153686524</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05325</v>
+        <v>0.05275000000000001</v>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
@@ -731,19 +731,19 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="n">
-        <v>42369</v>
+        <v>42400</v>
       </c>
       <c r="B7" s="7" t="n">
-        <v>2043.93994140625</v>
+        <v>1940.239990234375</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>2061.148153686524</v>
+        <v>2045.518554077148</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.05275000000000001</v>
+        <v>0.052</v>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
@@ -753,19 +753,19 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="n">
-        <v>42400</v>
+        <v>42429</v>
       </c>
       <c r="B8" s="7" t="n">
-        <v>1940.239990234375</v>
+        <v>1932.22998046875</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>2045.518554077148</v>
+        <v>2025.770903930664</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.052</v>
+        <v>0.0515</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -775,19 +775,19 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="n">
-        <v>42429</v>
+        <v>42460</v>
       </c>
       <c r="B9" s="7" t="n">
-        <v>1932.22998046875</v>
+        <v>2059.739990234375</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>2025.770903930664</v>
+        <v>2016.108101196289</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.049</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0515</v>
+        <v>0.05116666666666667</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -797,19 +797,19 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="n">
-        <v>42460</v>
+        <v>42490</v>
       </c>
       <c r="B10" s="7" t="n">
-        <v>2059.739990234375</v>
+        <v>2065.300048828125</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>2016.108101196289</v>
+        <v>2014.524298706055</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.05116666666666667</v>
+        <v>0.05091666666666667</v>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
@@ -819,19 +819,19 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="n">
-        <v>42490</v>
+        <v>42521</v>
       </c>
       <c r="B11" s="7" t="n">
-        <v>2065.300048828125</v>
+        <v>2096.949951171875</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>2014.524298706055</v>
+        <v>2010.97549987793</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.051</v>
+        <v>0.048</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05091666666666667</v>
+        <v>0.05025</v>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
@@ -841,19 +841,19 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="n">
-        <v>42521</v>
+        <v>42551</v>
       </c>
       <c r="B12" s="7" t="n">
-        <v>2096.949951171875</v>
+        <v>2098.860107421875</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>2010.97549987793</v>
+        <v>2022.612849731445</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05025</v>
+        <v>0.04991666666666667</v>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
@@ -863,19 +863,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="n">
-        <v>42551</v>
+        <v>42582</v>
       </c>
       <c r="B13" s="7" t="n">
-        <v>2098.860107421875</v>
+        <v>2173.60009765625</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>2022.612849731445</v>
+        <v>2041.358397827148</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.04991666666666667</v>
+        <v>0.04958333333333333</v>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
@@ -885,19 +885,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
-        <v>42582</v>
+        <v>42613</v>
       </c>
       <c r="B14" s="7" t="n">
-        <v>2173.60009765625</v>
+        <v>2170.949951171875</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>2041.358397827148</v>
+        <v>2054.378747558594</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04958333333333333</v>
+        <v>0.04941666666666666</v>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
@@ -907,16 +907,16 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
-        <v>42613</v>
+        <v>42643</v>
       </c>
       <c r="B15" s="7" t="n">
-        <v>2170.949951171875</v>
+        <v>2168.27001953125</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>2054.378747558594</v>
+        <v>2063.764198608399</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.049</v>
+        <v>0.05</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.04941666666666666</v>
@@ -929,19 +929,19 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
-        <v>42643</v>
+        <v>42674</v>
       </c>
       <c r="B16" s="7" t="n">
-        <v>2168.27001953125</v>
+        <v>2126.14990234375</v>
       </c>
       <c r="C16" s="7" t="n">
-        <v>2063.764198608399</v>
+        <v>2078.843295288086</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.04941666666666666</v>
+        <v>0.04933333333333333</v>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
@@ -951,19 +951,19 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
-        <v>42674</v>
+        <v>42704</v>
       </c>
       <c r="B17" s="7" t="n">
-        <v>2126.14990234375</v>
+        <v>2198.81005859375</v>
       </c>
       <c r="C17" s="7" t="n">
-        <v>2078.843295288086</v>
+        <v>2107.976694335937</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.049</v>
+        <v>0.047</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04933333333333333</v>
+        <v>0.04899999999999999</v>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
@@ -973,19 +973,19 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
-        <v>42704</v>
+        <v>42735</v>
       </c>
       <c r="B18" s="7" t="n">
-        <v>2198.81005859375</v>
+        <v>2238.830078125</v>
       </c>
       <c r="C18" s="7" t="n">
-        <v>2107.976694335937</v>
+        <v>2136.33389465332</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0.047</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04899999999999999</v>
+        <v>0.04875</v>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
@@ -995,19 +995,19 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
-        <v>42735</v>
+        <v>42766</v>
       </c>
       <c r="B19" s="7" t="n">
-        <v>2238.830078125</v>
+        <v>2278.8701171875</v>
       </c>
       <c r="C19" s="7" t="n">
-        <v>2136.33389465332</v>
+        <v>2158.199143066406</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.047</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.04875</v>
+        <v>0.04866666666666666</v>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
@@ -1017,19 +1017,19 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
-        <v>42766</v>
+        <v>42794</v>
       </c>
       <c r="B20" s="7" t="n">
-        <v>2278.8701171875</v>
+        <v>2363.639892578125</v>
       </c>
       <c r="C20" s="7" t="n">
-        <v>2158.199143066406</v>
+        <v>2182.182194824219</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04866666666666666</v>
+        <v>0.04841666666666667</v>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
@@ -1039,19 +1039,19 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
-        <v>42794</v>
+        <v>42825</v>
       </c>
       <c r="B21" s="7" t="n">
-        <v>2363.639892578125</v>
+        <v>2362.719970703125</v>
       </c>
       <c r="C21" s="7" t="n">
-        <v>2182.182194824219</v>
+        <v>2214.951593017578</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.046</v>
+        <v>0.044</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04841666666666667</v>
+        <v>0.04791666666666667</v>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
@@ -1061,19 +1061,19 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="n">
-        <v>42825</v>
+        <v>42855</v>
       </c>
       <c r="B22" s="7" t="n">
-        <v>2362.719970703125</v>
+        <v>2384.199951171875</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>2214.951593017578</v>
+        <v>2240.463193359375</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.044</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.04791666666666667</v>
+        <v>0.04733333333333333</v>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
@@ -1083,19 +1083,19 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
-        <v>42855</v>
+        <v>42886</v>
       </c>
       <c r="B23" s="7" t="n">
-        <v>2384.199951171875</v>
+        <v>2411.800048828125</v>
       </c>
       <c r="C23" s="7" t="n">
-        <v>2240.463193359375</v>
+        <v>2265.131138916016</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0.044</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04733333333333333</v>
+        <v>0.047</v>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
@@ -1105,19 +1105,19 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="n">
-        <v>42886</v>
+        <v>42916</v>
       </c>
       <c r="B24" s="7" t="n">
-        <v>2411.800048828125</v>
+        <v>2423.409912109375</v>
       </c>
       <c r="C24" s="7" t="n">
-        <v>2265.131138916016</v>
+        <v>2293.970689697266</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.047</v>
+        <v>0.04649999999999999</v>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
@@ -1127,19 +1127,19 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="n">
-        <v>42916</v>
+        <v>42947</v>
       </c>
       <c r="B25" s="7" t="n">
-        <v>2423.409912109375</v>
+        <v>2470.300048828125</v>
       </c>
       <c r="C25" s="7" t="n">
-        <v>2293.970689697266</v>
+        <v>2323.917990722656</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.043</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.04649999999999999</v>
+        <v>0.04608333333333334</v>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
@@ -1149,19 +1149,19 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="n">
-        <v>42947</v>
+        <v>42978</v>
       </c>
       <c r="B26" s="7" t="n">
-        <v>2470.300048828125</v>
+        <v>2471.64990234375</v>
       </c>
       <c r="C26" s="7" t="n">
-        <v>2323.917990722656</v>
+        <v>2360.924095458985</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04608333333333334</v>
+        <v>0.04566666666666667</v>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
@@ -1171,19 +1171,19 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>42978</v>
+        <v>43008</v>
       </c>
       <c r="B27" s="7" t="n">
-        <v>2471.64990234375</v>
+        <v>2519.360107421875</v>
       </c>
       <c r="C27" s="7" t="n">
-        <v>2360.924095458985</v>
+        <v>2389.075950927735</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04566666666666667</v>
+        <v>0.04508333333333334</v>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
@@ -1193,19 +1193,19 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="n">
-        <v>43008</v>
+        <v>43039</v>
       </c>
       <c r="B28" s="7" t="n">
-        <v>2519.360107421875</v>
+        <v>2575.260009765625</v>
       </c>
       <c r="C28" s="7" t="n">
-        <v>2389.075950927735</v>
+        <v>2421.324952392578</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.04508333333333334</v>
+        <v>0.0445</v>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
@@ -1215,19 +1215,19 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="n">
-        <v>43039</v>
+        <v>43069</v>
       </c>
       <c r="B29" s="7" t="n">
-        <v>2575.260009765625</v>
+        <v>2647.580078125</v>
       </c>
       <c r="C29" s="7" t="n">
-        <v>2421.324952392578</v>
+        <v>2452.759302978516</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0.042</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0445</v>
+        <v>0.04408333333333334</v>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
@@ -1237,19 +1237,19 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="n">
-        <v>43069</v>
+        <v>43100</v>
       </c>
       <c r="B30" s="7" t="n">
-        <v>2647.580078125</v>
+        <v>2673.610107421875</v>
       </c>
       <c r="C30" s="7" t="n">
-        <v>2452.759302978516</v>
+        <v>2482.184206542969</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.042</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.04408333333333334</v>
+        <v>0.04358333333333334</v>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
@@ -1259,19 +1259,19 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="n">
-        <v>43100</v>
+        <v>43131</v>
       </c>
       <c r="B31" s="7" t="n">
-        <v>2673.610107421875</v>
+        <v>2823.81005859375</v>
       </c>
       <c r="C31" s="7" t="n">
-        <v>2482.184206542969</v>
+        <v>2527.888558349609</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>0.04099999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>0.04358333333333334</v>
+        <v>0.043</v>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
@@ -1281,19 +1281,19 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="n">
-        <v>43131</v>
+        <v>43159</v>
       </c>
       <c r="B32" s="7" t="n">
-        <v>2823.81005859375</v>
+        <v>2713.830078125</v>
       </c>
       <c r="C32" s="7" t="n">
-        <v>2527.888558349609</v>
+        <v>2558.64941040039</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>0.04</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>0.043</v>
+        <v>0.04258333333333333</v>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
@@ -1303,19 +1303,19 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="n">
-        <v>43159</v>
+        <v>43190</v>
       </c>
       <c r="B33" s="7" t="n">
-        <v>2713.830078125</v>
+        <v>2640.8701171875</v>
       </c>
       <c r="C33" s="7" t="n">
-        <v>2558.64941040039</v>
+        <v>2589.126160888672</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>0.04099999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>0.04258333333333333</v>
+        <v>0.04225</v>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="n">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="B34" s="7" t="n">
-        <v>2640.8701171875</v>
+        <v>2648.050048828125</v>
       </c>
       <c r="C34" s="7" t="n">
-        <v>2589.126160888672</v>
+        <v>2612.330809326172</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>0.04</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.04225</v>
+        <v>0.04191666666666666</v>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
@@ -1347,19 +1347,19 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="n">
-        <v>43220</v>
+        <v>43251</v>
       </c>
       <c r="B35" s="7" t="n">
-        <v>2648.050048828125</v>
+        <v>2705.27001953125</v>
       </c>
       <c r="C35" s="7" t="n">
-        <v>2612.330809326172</v>
+        <v>2637.896806640625</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.04191666666666666</v>
+        <v>0.04141666666666666</v>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
@@ -1369,19 +1369,19 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="n">
-        <v>43251</v>
+        <v>43281</v>
       </c>
       <c r="B36" s="7" t="n">
-        <v>2705.27001953125</v>
+        <v>2718.3701171875</v>
       </c>
       <c r="C36" s="7" t="n">
-        <v>2637.896806640625</v>
+        <v>2668.981705322265</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.04141666666666666</v>
+        <v>0.04116666666666666</v>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
@@ -1391,19 +1391,19 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="n">
-        <v>43281</v>
+        <v>43312</v>
       </c>
       <c r="B37" s="7" t="n">
-        <v>2718.3701171875</v>
+        <v>2816.2900390625</v>
       </c>
       <c r="C37" s="7" t="n">
-        <v>2668.981705322265</v>
+        <v>2697.555405273437</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>0.04116666666666666</v>
+        <v>0.04075</v>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
@@ -1413,19 +1413,19 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="n">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="B38" s="7" t="n">
-        <v>2816.2900390625</v>
+        <v>2901.52001953125</v>
       </c>
       <c r="C38" s="7" t="n">
-        <v>2697.555405273437</v>
+        <v>2730.187803955078</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>0.038</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>0.04075</v>
+        <v>0.04024999999999999</v>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
@@ -1435,19 +1435,19 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="n">
-        <v>43343</v>
+        <v>43373</v>
       </c>
       <c r="B39" s="7" t="n">
-        <v>2901.52001953125</v>
+        <v>2913.97998046875</v>
       </c>
       <c r="C39" s="7" t="n">
-        <v>2730.187803955078</v>
+        <v>2757.005501708984</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>0.038</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>0.04024999999999999</v>
+        <v>0.03975</v>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
@@ -1457,19 +1457,19 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="n">
-        <v>43373</v>
+        <v>43404</v>
       </c>
       <c r="B40" s="7" t="n">
-        <v>2913.97998046875</v>
+        <v>2711.739990234375</v>
       </c>
       <c r="C40" s="7" t="n">
-        <v>2757.005501708984</v>
+        <v>2765.385198974609</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.038</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.03975</v>
+        <v>0.03941666666666666</v>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
@@ -1479,19 +1479,19 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="n">
-        <v>43404</v>
+        <v>43434</v>
       </c>
       <c r="B41" s="7" t="n">
-        <v>2711.739990234375</v>
+        <v>2760.169921875</v>
       </c>
       <c r="C41" s="7" t="n">
-        <v>2765.385198974609</v>
+        <v>2761.879350585938</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>0.038</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.03941666666666666</v>
+        <v>0.03908333333333333</v>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
@@ -1501,38 +1501,38 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="n">
-        <v>43434</v>
+        <v>43465</v>
       </c>
       <c r="B42" s="7" t="n">
-        <v>2760.169921875</v>
+        <v>2506.85009765625</v>
       </c>
       <c r="C42" s="7" t="n">
-        <v>2761.879350585938</v>
+        <v>2746.002349853516</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.038</v>
+        <v>0.039</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.03908333333333333</v>
+        <v>0.03891666666666667</v>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>SHY</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>43465</v>
+        <v>43496</v>
       </c>
       <c r="B43" s="7" t="n">
-        <v>2506.85009765625</v>
+        <v>2704.10009765625</v>
       </c>
       <c r="C43" s="7" t="n">
-        <v>2746.002349853516</v>
+        <v>2741.470949707031</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>0.03891666666666667</v>
@@ -1545,41 +1545,41 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B44" s="7" t="n">
-        <v>2704.10009765625</v>
+        <v>2784.489990234375</v>
       </c>
       <c r="C44" s="7" t="n">
-        <v>2741.470949707031</v>
+        <v>2749.262053222656</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>0.03891666666666667</v>
+        <v>0.03866666666666667</v>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>SHY</t>
+          <t>QQQ</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B45" s="7" t="n">
-        <v>2784.489990234375</v>
+        <v>2834.39990234375</v>
       </c>
       <c r="C45" s="7" t="n">
-        <v>2749.262053222656</v>
+        <v>2756.295349121094</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>0.038</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>0.03866666666666667</v>
+        <v>0.0385</v>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
@@ -1589,19 +1589,19 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B46" s="7" t="n">
-        <v>2834.39990234375</v>
+        <v>2945.830078125</v>
       </c>
       <c r="C46" s="7" t="n">
-        <v>2756.295349121094</v>
+        <v>2772.158345947266</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>0.038</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.0385</v>
+        <v>0.03825</v>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
@@ -1611,19 +1611,19 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B47" s="7" t="n">
-        <v>2945.830078125</v>
+        <v>2752.06005859375</v>
       </c>
       <c r="C47" s="7" t="n">
-        <v>2772.158345947266</v>
+        <v>2775.495494384766</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.036</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.03825</v>
+        <v>0.03808333333333334</v>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
@@ -1633,19 +1633,19 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B48" s="7" t="n">
-        <v>2752.06005859375</v>
+        <v>2941.760009765625</v>
       </c>
       <c r="C48" s="7" t="n">
-        <v>2775.495494384766</v>
+        <v>2777.143743896484</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>0.036</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.03808333333333334</v>
+        <v>0.03775000000000001</v>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
@@ -1655,19 +1655,19 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B49" s="7" t="n">
-        <v>2941.760009765625</v>
+        <v>2980.3798828125</v>
       </c>
       <c r="C49" s="7" t="n">
-        <v>2777.143743896484</v>
+        <v>2788.376392822266</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>0.036</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>0.03775000000000001</v>
+        <v>0.03766666666666666</v>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
@@ -1677,19 +1677,19 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B50" s="7" t="n">
-        <v>2980.3798828125</v>
+        <v>2926.4599609375</v>
       </c>
       <c r="C50" s="7" t="n">
-        <v>2788.376392822266</v>
+        <v>2805.539443359375</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.036</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>0.03766666666666666</v>
+        <v>0.0375</v>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
@@ -1699,19 +1699,19 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B51" s="7" t="n">
-        <v>2926.4599609375</v>
+        <v>2976.739990234375</v>
       </c>
       <c r="C51" s="7" t="n">
-        <v>2805.539443359375</v>
+        <v>2834.516293945313</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>0.0375</v>
+        <v>0.03733333333333333</v>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
@@ -1721,19 +1721,19 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B52" s="7" t="n">
-        <v>2976.739990234375</v>
+        <v>3037.56005859375</v>
       </c>
       <c r="C52" s="7" t="n">
-        <v>2834.516293945313</v>
+        <v>2885.7757421875</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>0.03733333333333333</v>
+        <v>0.03716666666666667</v>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
@@ -1743,19 +1743,19 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="n">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B53" s="7" t="n">
-        <v>3037.56005859375</v>
+        <v>3140.97998046875</v>
       </c>
       <c r="C53" s="7" t="n">
-        <v>2885.7757421875</v>
+        <v>2927.154739990234</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>0.036</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.03716666666666667</v>
+        <v>0.037</v>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
@@ -1765,19 +1765,19 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="n">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B54" s="7" t="n">
-        <v>3140.97998046875</v>
+        <v>3230.780029296875</v>
       </c>
       <c r="C54" s="7" t="n">
-        <v>2927.154739990234</v>
+        <v>2967.844791259766</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>0.036</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.037</v>
+        <v>0.03675</v>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
@@ -1787,19 +1787,19 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="n">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B55" s="7" t="n">
-        <v>3230.780029296875</v>
+        <v>3225.52001953125</v>
       </c>
       <c r="C55" s="7" t="n">
-        <v>2967.844791259766</v>
+        <v>3011.881442871094</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>0.036</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>0.03675</v>
+        <v>0.03641666666666666</v>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
@@ -1809,19 +1809,19 @@
     </row>
     <row r="56">
       <c r="A56" s="6" t="n">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B56" s="7" t="n">
-        <v>3225.52001953125</v>
+        <v>2954.219970703125</v>
       </c>
       <c r="C56" s="7" t="n">
-        <v>3011.881442871094</v>
+        <v>3047.173692626953</v>
       </c>
       <c r="D56" s="5" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>0.03641666666666666</v>
+        <v>0.03616666666666667</v>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
@@ -1831,41 +1831,41 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="n">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B57" s="7" t="n">
-        <v>2954.219970703125</v>
+        <v>2584.590087890625</v>
       </c>
       <c r="C57" s="7" t="n">
-        <v>3047.173692626953</v>
+        <v>3026.71744140625</v>
       </c>
       <c r="D57" s="5" t="n">
-        <v>0.035</v>
+        <v>0.044</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>0.03616666666666667</v>
+        <v>0.03666666666666667</v>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>SHY</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="n">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B58" s="7" t="n">
-        <v>2584.590087890625</v>
+        <v>2912.429931640625</v>
       </c>
       <c r="C58" s="7" t="n">
-        <v>3026.71744140625</v>
+        <v>3005.795091552734</v>
       </c>
       <c r="D58" s="5" t="n">
-        <v>0.044</v>
+        <v>0.148</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>0.03666666666666667</v>
+        <v>0.04591666666666667</v>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
@@ -1875,41 +1875,41 @@
     </row>
     <row r="59">
       <c r="A59" s="6" t="n">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B59" s="7" t="n">
-        <v>2912.429931640625</v>
+        <v>3044.31005859375</v>
       </c>
       <c r="C59" s="7" t="n">
-        <v>3005.795091552734</v>
+        <v>3001.895339355469</v>
       </c>
       <c r="D59" s="5" t="n">
-        <v>0.148</v>
+        <v>0.132</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>0.04591666666666667</v>
+        <v>0.05391666666666667</v>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>SHY</t>
+          <t>QQQ</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="n">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B60" s="7" t="n">
-        <v>3044.31005859375</v>
+        <v>3100.2900390625</v>
       </c>
       <c r="C60" s="7" t="n">
-        <v>3001.895339355469</v>
+        <v>3021.625444335938</v>
       </c>
       <c r="D60" s="5" t="n">
-        <v>0.132</v>
+        <v>0.11</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>0.05391666666666667</v>
+        <v>0.06008333333333333</v>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
@@ -1919,19 +1919,19 @@
     </row>
     <row r="61">
       <c r="A61" s="6" t="n">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B61" s="7" t="n">
-        <v>3100.2900390625</v>
+        <v>3271.1201171875</v>
       </c>
       <c r="C61" s="7" t="n">
-        <v>3021.625444335938</v>
+        <v>3048.560394287109</v>
       </c>
       <c r="D61" s="5" t="n">
-        <v>0.11</v>
+        <v>0.102</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>0.06008333333333333</v>
+        <v>0.0655</v>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
@@ -1941,19 +1941,19 @@
     </row>
     <row r="62">
       <c r="A62" s="6" t="n">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B62" s="7" t="n">
-        <v>3271.1201171875</v>
+        <v>3500.31005859375</v>
       </c>
       <c r="C62" s="7" t="n">
-        <v>3048.560394287109</v>
+        <v>3085.078546142578</v>
       </c>
       <c r="D62" s="5" t="n">
-        <v>0.102</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>0.0655</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
@@ -1963,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="6" t="n">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B63" s="7" t="n">
-        <v>3500.31005859375</v>
+        <v>3363</v>
       </c>
       <c r="C63" s="7" t="n">
-        <v>3085.078546142578</v>
+        <v>3110.052749023438</v>
       </c>
       <c r="D63" s="5" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.078</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.07308333333333333</v>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
@@ -1985,19 +1985,19 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="n">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B64" s="7" t="n">
-        <v>3363</v>
+        <v>3269.9599609375</v>
       </c>
       <c r="C64" s="7" t="n">
-        <v>3110.052749023438</v>
+        <v>3129.471098632812</v>
       </c>
       <c r="D64" s="5" t="n">
-        <v>0.078</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>0.07308333333333333</v>
+        <v>0.07583333333333334</v>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
@@ -2007,19 +2007,19 @@
     </row>
     <row r="65">
       <c r="A65" s="6" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B65" s="7" t="n">
-        <v>3269.9599609375</v>
+        <v>3621.6298828125</v>
       </c>
       <c r="C65" s="7" t="n">
-        <v>3129.471098632812</v>
+        <v>3152.901848144531</v>
       </c>
       <c r="D65" s="5" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>0.07583333333333334</v>
+        <v>0.07841666666666666</v>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
@@ -2029,19 +2029,19 @@
     </row>
     <row r="66">
       <c r="A66" s="6" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B66" s="7" t="n">
-        <v>3621.6298828125</v>
+        <v>3756.070068359375</v>
       </c>
       <c r="C66" s="7" t="n">
-        <v>3152.901848144531</v>
+        <v>3234.555101318359</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>0.067</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>0.07841666666666666</v>
+        <v>0.081</v>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
@@ -2051,19 +2051,19 @@
     </row>
     <row r="67">
       <c r="A67" s="6" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B67" s="7" t="n">
-        <v>3756.070068359375</v>
+        <v>3714.239990234375</v>
       </c>
       <c r="C67" s="7" t="n">
-        <v>3234.555101318359</v>
+        <v>3349.974354248047</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>0.067</v>
+        <v>0.064</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>0.081</v>
+        <v>0.08333333333333334</v>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
@@ -2073,19 +2073,19 @@
     </row>
     <row r="68">
       <c r="A68" s="6" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B68" s="7" t="n">
-        <v>3714.239990234375</v>
+        <v>3811.14990234375</v>
       </c>
       <c r="C68" s="7" t="n">
-        <v>3349.974354248047</v>
+        <v>3447.584906005859</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>0.064</v>
+        <v>0.062</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>0.08333333333333334</v>
+        <v>0.08558333333333332</v>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
@@ -2095,19 +2095,19 @@
     </row>
     <row r="69">
       <c r="A69" s="6" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B69" s="7" t="n">
-        <v>3811.14990234375</v>
+        <v>3972.889892578125</v>
       </c>
       <c r="C69" s="7" t="n">
-        <v>3447.584906005859</v>
+        <v>3548.813508300781</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>0.062</v>
+        <v>0.061</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>0.08558333333333332</v>
+        <v>0.08700000000000001</v>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
@@ -2117,19 +2117,19 @@
     </row>
     <row r="70">
       <c r="A70" s="6" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B70" s="7" t="n">
-        <v>3972.889892578125</v>
+        <v>4181.169921875</v>
       </c>
       <c r="C70" s="7" t="n">
-        <v>3548.813508300781</v>
+        <v>3655.36515625</v>
       </c>
       <c r="D70" s="5" t="n">
         <v>0.061</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>0.08700000000000001</v>
+        <v>0.07974999999999999</v>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
@@ -2139,19 +2139,19 @@
     </row>
     <row r="71">
       <c r="A71" s="6" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B71" s="7" t="n">
-        <v>4181.169921875</v>
+        <v>4204.10986328125</v>
       </c>
       <c r="C71" s="7" t="n">
-        <v>3655.36515625</v>
+        <v>3744.079010009766</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>0.061</v>
+        <v>0.058</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>0.07974999999999999</v>
+        <v>0.07358333333333333</v>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
@@ -2161,19 +2161,19 @@
     </row>
     <row r="72">
       <c r="A72" s="6" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B72" s="7" t="n">
-        <v>4204.10986328125</v>
+        <v>4297.5</v>
       </c>
       <c r="C72" s="7" t="n">
-        <v>3744.079010009766</v>
+        <v>3833.782458496094</v>
       </c>
       <c r="D72" s="5" t="n">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>0.07358333333333333</v>
+        <v>0.06933333333333333</v>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
@@ -2183,19 +2183,19 @@
     </row>
     <row r="73">
       <c r="A73" s="6" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B73" s="7" t="n">
-        <v>4297.5</v>
+        <v>4395.259765625</v>
       </c>
       <c r="C73" s="7" t="n">
-        <v>3833.782458496094</v>
+        <v>3938.071352539062</v>
       </c>
       <c r="D73" s="5" t="n">
-        <v>0.059</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>0.06933333333333333</v>
+        <v>0.06533333333333334</v>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
@@ -2205,19 +2205,19 @@
     </row>
     <row r="74">
       <c r="A74" s="6" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B74" s="7" t="n">
-        <v>4395.259765625</v>
+        <v>4522.68017578125</v>
       </c>
       <c r="C74" s="7" t="n">
-        <v>3938.071352539062</v>
+        <v>4049.650206298828</v>
       </c>
       <c r="D74" s="5" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.051</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>0.06533333333333334</v>
+        <v>0.06258333333333332</v>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
@@ -2227,19 +2227,19 @@
     </row>
     <row r="75">
       <c r="A75" s="6" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B75" s="7" t="n">
-        <v>4522.68017578125</v>
+        <v>4307.5400390625</v>
       </c>
       <c r="C75" s="7" t="n">
-        <v>4049.650206298828</v>
+        <v>4134.558254394531</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>0.051</v>
+        <v>0.047</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>0.06258333333333332</v>
+        <v>0.06</v>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
@@ -2249,19 +2249,19 @@
     </row>
     <row r="76">
       <c r="A76" s="6" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B76" s="7" t="n">
-        <v>4307.5400390625</v>
+        <v>4605.3798828125</v>
       </c>
       <c r="C76" s="7" t="n">
-        <v>4134.558254394531</v>
+        <v>4210.113796386719</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>0.06</v>
+        <v>0.05800000000000001</v>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
@@ -2271,19 +2271,19 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B77" s="7" t="n">
-        <v>4605.3798828125</v>
+        <v>4567</v>
       </c>
       <c r="C77" s="7" t="n">
-        <v>4210.113796386719</v>
+        <v>4296.287742919922</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>0.045</v>
+        <v>0.042</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>0.05800000000000001</v>
+        <v>0.05591666666666668</v>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
@@ -2293,19 +2293,19 @@
     </row>
     <row r="78">
       <c r="A78" s="6" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B78" s="7" t="n">
-        <v>4567</v>
+        <v>4766.18017578125</v>
       </c>
       <c r="C78" s="7" t="n">
-        <v>4296.287742919922</v>
+        <v>4382.62499633789</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>0.042</v>
+        <v>0.039</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>0.05591666666666668</v>
+        <v>0.05358333333333334</v>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
@@ -2315,19 +2315,19 @@
     </row>
     <row r="79">
       <c r="A79" s="6" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B79" s="7" t="n">
-        <v>4766.18017578125</v>
+        <v>4515.5498046875</v>
       </c>
       <c r="C79" s="7" t="n">
-        <v>4382.62499633789</v>
+        <v>4436.667990722656</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>0.05358333333333334</v>
+        <v>0.05158333333333334</v>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="80">
       <c r="A80" s="6" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B80" s="7" t="n">
-        <v>4515.5498046875</v>
+        <v>4373.93994140625</v>
       </c>
       <c r="C80" s="7" t="n">
-        <v>4436.667990722656</v>
+        <v>4462.025483398437</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>0.05158333333333334</v>
+        <v>0.04958333333333333</v>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
@@ -2359,19 +2359,19 @@
     </row>
     <row r="81">
       <c r="A81" s="6" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B81" s="7" t="n">
-        <v>4373.93994140625</v>
+        <v>4530.41015625</v>
       </c>
       <c r="C81" s="7" t="n">
-        <v>4462.025483398437</v>
+        <v>4484.020588378906</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>0.038</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>0.04958333333333333</v>
+        <v>0.04758333333333333</v>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
@@ -2381,19 +2381,19 @@
     </row>
     <row r="82">
       <c r="A82" s="6" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B82" s="7" t="n">
-        <v>4530.41015625</v>
+        <v>4131.93017578125</v>
       </c>
       <c r="C82" s="7" t="n">
-        <v>4484.020588378906</v>
+        <v>4492.745344238281</v>
       </c>
       <c r="D82" s="5" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>0.04758333333333333</v>
+        <v>0.04558333333333334</v>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
@@ -2403,19 +2403,19 @@
     </row>
     <row r="83">
       <c r="A83" s="6" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B83" s="7" t="n">
-        <v>4131.93017578125</v>
+        <v>4132.14990234375</v>
       </c>
       <c r="C83" s="7" t="n">
-        <v>4492.745344238281</v>
+        <v>4454.961091308593</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.036</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>0.04558333333333334</v>
+        <v>0.04375</v>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
@@ -2425,19 +2425,19 @@
     </row>
     <row r="84">
       <c r="A84" s="6" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B84" s="7" t="n">
-        <v>4132.14990234375</v>
+        <v>3785.3798828125</v>
       </c>
       <c r="C84" s="7" t="n">
-        <v>4454.961091308593</v>
+        <v>4393.537846679687</v>
       </c>
       <c r="D84" s="5" t="n">
         <v>0.036</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>0.04375</v>
+        <v>0.04183333333333333</v>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
@@ -2447,19 +2447,19 @@
     </row>
     <row r="85">
       <c r="A85" s="6" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B85" s="7" t="n">
-        <v>3785.3798828125</v>
+        <v>4130.2900390625</v>
       </c>
       <c r="C85" s="7" t="n">
-        <v>4393.537846679687</v>
+        <v>4346.051247558594</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>0.04183333333333333</v>
+        <v>0.04025</v>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
@@ -2469,19 +2469,19 @@
     </row>
     <row r="86">
       <c r="A86" s="6" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B86" s="7" t="n">
-        <v>4130.2900390625</v>
+        <v>3955</v>
       </c>
       <c r="C86" s="7" t="n">
-        <v>4346.051247558594</v>
+        <v>4297.019007568359</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>0.04025</v>
+        <v>0.03900000000000001</v>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
@@ -2491,19 +2491,19 @@
     </row>
     <row r="87">
       <c r="A87" s="6" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B87" s="7" t="n">
-        <v>3955</v>
+        <v>3585.6201171875</v>
       </c>
       <c r="C87" s="7" t="n">
-        <v>4297.019007568359</v>
+        <v>4213.035708007813</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>0.03900000000000001</v>
+        <v>0.03800000000000001</v>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
@@ -2513,19 +2513,19 @@
     </row>
     <row r="88">
       <c r="A88" s="6" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B88" s="7" t="n">
-        <v>3585.6201171875</v>
+        <v>3871.97998046875</v>
       </c>
       <c r="C88" s="7" t="n">
-        <v>4213.035708007813</v>
+        <v>4109.337208251953</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>0.03800000000000001</v>
+        <v>0.03725</v>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
@@ -2535,19 +2535,19 @@
     </row>
     <row r="89">
       <c r="A89" s="6" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B89" s="7" t="n">
-        <v>3871.97998046875</v>
+        <v>4080.110107421875</v>
       </c>
       <c r="C89" s="7" t="n">
-        <v>4109.337208251953</v>
+        <v>4050.300112304687</v>
       </c>
       <c r="D89" s="5" t="n">
         <v>0.036</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>0.03725</v>
+        <v>0.03675</v>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
@@ -2557,19 +2557,19 @@
     </row>
     <row r="90">
       <c r="A90" s="6" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B90" s="7" t="n">
-        <v>4080.110107421875</v>
+        <v>3839.5</v>
       </c>
       <c r="C90" s="7" t="n">
-        <v>4050.300112304687</v>
+        <v>4008.375915527344</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>0.03675</v>
+        <v>0.03641666666666666</v>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
@@ -2579,19 +2579,19 @@
     </row>
     <row r="91">
       <c r="A91" s="6" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B91" s="7" t="n">
-        <v>3839.5</v>
+        <v>4076.60009765625</v>
       </c>
       <c r="C91" s="7" t="n">
-        <v>4008.375915527344</v>
+        <v>3954.007315673828</v>
       </c>
       <c r="D91" s="5" t="n">
         <v>0.035</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>0.03641666666666666</v>
+        <v>0.036</v>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
@@ -2601,19 +2601,19 @@
     </row>
     <row r="92">
       <c r="A92" s="6" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B92" s="7" t="n">
-        <v>4076.60009765625</v>
+        <v>3970.14990234375</v>
       </c>
       <c r="C92" s="7" t="n">
-        <v>3954.007315673828</v>
+        <v>3940.203364257813</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>0.036</v>
+        <v>0.03583333333333334</v>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
@@ -2623,19 +2623,19 @@
     </row>
     <row r="93">
       <c r="A93" s="6" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B93" s="7" t="n">
-        <v>3970.14990234375</v>
+        <v>4109.31005859375</v>
       </c>
       <c r="C93" s="7" t="n">
-        <v>3940.203364257813</v>
+        <v>3935.552113037109</v>
       </c>
       <c r="D93" s="5" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>0.03583333333333334</v>
+        <v>0.03566666666666667</v>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
@@ -2645,19 +2645,19 @@
     </row>
     <row r="94">
       <c r="A94" s="6" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B94" s="7" t="n">
-        <v>4109.31005859375</v>
+        <v>4169.47998046875</v>
       </c>
       <c r="C94" s="7" t="n">
-        <v>3935.552113037109</v>
+        <v>3964.749361572266</v>
       </c>
       <c r="D94" s="5" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>0.03566666666666667</v>
+        <v>0.03541666666666667</v>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
@@ -2667,16 +2667,16 @@
     </row>
     <row r="95">
       <c r="A95" s="6" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B95" s="7" t="n">
-        <v>4169.47998046875</v>
+        <v>4179.830078125</v>
       </c>
       <c r="C95" s="7" t="n">
-        <v>3964.749361572266</v>
+        <v>3975.437963867188</v>
       </c>
       <c r="D95" s="5" t="n">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="E95" s="5" t="n">
         <v>0.03541666666666667</v>
@@ -2689,13 +2689,13 @@
     </row>
     <row r="96">
       <c r="A96" s="6" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B96" s="7" t="n">
-        <v>4179.830078125</v>
+        <v>4450.3798828125</v>
       </c>
       <c r="C96" s="7" t="n">
-        <v>3975.437963867188</v>
+        <v>4002.099855957031</v>
       </c>
       <c r="D96" s="5" t="n">
         <v>0.036</v>
@@ -2711,16 +2711,16 @@
     </row>
     <row r="97">
       <c r="A97" s="6" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B97" s="7" t="n">
-        <v>4450.3798828125</v>
+        <v>4588.9599609375</v>
       </c>
       <c r="C97" s="7" t="n">
-        <v>4002.099855957031</v>
+        <v>4078.891555175781</v>
       </c>
       <c r="D97" s="5" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="E97" s="5" t="n">
         <v>0.03541666666666667</v>
@@ -2733,19 +2733,19 @@
     </row>
     <row r="98">
       <c r="A98" s="6" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B98" s="7" t="n">
-        <v>4588.9599609375</v>
+        <v>4507.66015625</v>
       </c>
       <c r="C98" s="7" t="n">
-        <v>4078.891555175781</v>
+        <v>4157.247650146484</v>
       </c>
       <c r="D98" s="5" t="n">
-        <v>0.035</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="E98" s="5" t="n">
-        <v>0.03541666666666667</v>
+        <v>0.0355</v>
       </c>
       <c r="F98" s="4" t="inlineStr">
         <is>
@@ -2755,19 +2755,19 @@
     </row>
     <row r="99">
       <c r="A99" s="6" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B99" s="7" t="n">
-        <v>4507.66015625</v>
+        <v>4288.0498046875</v>
       </c>
       <c r="C99" s="7" t="n">
-        <v>4157.247650146484</v>
+        <v>4199.462198486328</v>
       </c>
       <c r="D99" s="5" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.038</v>
       </c>
       <c r="E99" s="5" t="n">
-        <v>0.0355</v>
+        <v>0.03575</v>
       </c>
       <c r="F99" s="4" t="inlineStr">
         <is>
@@ -2777,63 +2777,63 @@
     </row>
     <row r="100">
       <c r="A100" s="6" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B100" s="7" t="n">
-        <v>4288.0498046875</v>
+        <v>4193.7998046875</v>
       </c>
       <c r="C100" s="7" t="n">
-        <v>4199.462198486328</v>
+        <v>4242.132501220703</v>
       </c>
       <c r="D100" s="5" t="n">
-        <v>0.038</v>
+        <v>0.039</v>
       </c>
       <c r="E100" s="5" t="n">
-        <v>0.03575</v>
+        <v>0.036</v>
       </c>
       <c r="F100" s="4" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>SHY</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B101" s="7" t="n">
-        <v>4193.7998046875</v>
+        <v>4567.7998046875</v>
       </c>
       <c r="C101" s="7" t="n">
-        <v>4242.132501220703</v>
+        <v>4283.722149658203</v>
       </c>
       <c r="D101" s="5" t="n">
-        <v>0.039</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="E101" s="5" t="n">
-        <v>0.036</v>
+        <v>0.03608333333333334</v>
       </c>
       <c r="F101" s="4" t="inlineStr">
         <is>
-          <t>SHY</t>
+          <t>QQQ</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B102" s="7" t="n">
-        <v>4567.7998046875</v>
+        <v>4769.830078125</v>
       </c>
       <c r="C102" s="7" t="n">
-        <v>4283.722149658203</v>
+        <v>4353.765747070312</v>
       </c>
       <c r="D102" s="5" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.038</v>
       </c>
       <c r="E102" s="5" t="n">
-        <v>0.03608333333333334</v>
+        <v>0.03633333333333334</v>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
@@ -2843,19 +2843,19 @@
     </row>
     <row r="103">
       <c r="A103" s="6" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B103" s="7" t="n">
-        <v>4769.830078125</v>
+        <v>4845.64990234375</v>
       </c>
       <c r="C103" s="7" t="n">
-        <v>4353.765747070312</v>
+        <v>4434.041555175781</v>
       </c>
       <c r="D103" s="5" t="n">
-        <v>0.038</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="E103" s="5" t="n">
-        <v>0.03633333333333334</v>
+        <v>0.0365</v>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
@@ -2865,19 +2865,19 @@
     </row>
     <row r="104">
       <c r="A104" s="6" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B104" s="7" t="n">
-        <v>4845.64990234375</v>
+        <v>5096.27001953125</v>
       </c>
       <c r="C104" s="7" t="n">
-        <v>4434.041555175781</v>
+        <v>4522.643645019532</v>
       </c>
       <c r="D104" s="5" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.039</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>0.0365</v>
+        <v>0.03675</v>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
@@ -2887,19 +2887,19 @@
     </row>
     <row r="105">
       <c r="A105" s="6" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B105" s="7" t="n">
-        <v>5096.27001953125</v>
+        <v>5254.35009765625</v>
       </c>
       <c r="C105" s="7" t="n">
-        <v>4522.643645019532</v>
+        <v>4618.4469921875</v>
       </c>
       <c r="D105" s="5" t="n">
         <v>0.039</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>0.03675</v>
+        <v>0.03708333333333334</v>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
@@ -2909,19 +2909,19 @@
     </row>
     <row r="106">
       <c r="A106" s="6" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B106" s="7" t="n">
-        <v>5254.35009765625</v>
+        <v>5035.68994140625</v>
       </c>
       <c r="C106" s="7" t="n">
-        <v>4618.4469921875</v>
+        <v>4695.6116015625</v>
       </c>
       <c r="D106" s="5" t="n">
         <v>0.039</v>
       </c>
       <c r="E106" s="5" t="n">
-        <v>0.03708333333333334</v>
+        <v>0.0375</v>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
@@ -2931,19 +2931,19 @@
     </row>
     <row r="107">
       <c r="A107" s="6" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B107" s="7" t="n">
-        <v>5035.68994140625</v>
+        <v>5277.509765625</v>
       </c>
       <c r="C107" s="7" t="n">
-        <v>4695.6116015625</v>
+        <v>4773.845505371094</v>
       </c>
       <c r="D107" s="5" t="n">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="E107" s="5" t="n">
-        <v>0.0375</v>
+        <v>0.03783333333333333</v>
       </c>
       <c r="F107" s="4" t="inlineStr">
         <is>
@@ -2953,19 +2953,19 @@
     </row>
     <row r="108">
       <c r="A108" s="6" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B108" s="7" t="n">
-        <v>5277.509765625</v>
+        <v>5460.47998046875</v>
       </c>
       <c r="C108" s="7" t="n">
-        <v>4773.845505371094</v>
+        <v>4866.08740234375</v>
       </c>
       <c r="D108" s="5" t="n">
-        <v>0.04</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="E108" s="5" t="n">
-        <v>0.03783333333333333</v>
+        <v>0.03825</v>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
@@ -2975,19 +2975,19 @@
     </row>
     <row r="109">
       <c r="A109" s="6" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B109" s="7" t="n">
-        <v>5460.47998046875</v>
+        <v>5522.2998046875</v>
       </c>
       <c r="C109" s="7" t="n">
-        <v>4866.08740234375</v>
+        <v>4997.195053710938</v>
       </c>
       <c r="D109" s="5" t="n">
-        <v>0.04099999999999999</v>
+        <v>0.042</v>
       </c>
       <c r="E109" s="5" t="n">
-        <v>0.03825</v>
+        <v>0.03883333333333333</v>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
@@ -2997,19 +2997,19 @@
     </row>
     <row r="110">
       <c r="A110" s="6" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B110" s="7" t="n">
-        <v>5522.2998046875</v>
+        <v>5648.39990234375</v>
       </c>
       <c r="C110" s="7" t="n">
-        <v>4997.195053710938</v>
+        <v>5127.931960449218</v>
       </c>
       <c r="D110" s="5" t="n">
         <v>0.042</v>
       </c>
       <c r="E110" s="5" t="n">
-        <v>0.03883333333333333</v>
+        <v>0.03925</v>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
@@ -3019,19 +3019,19 @@
     </row>
     <row r="111">
       <c r="A111" s="6" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B111" s="7" t="n">
-        <v>5648.39990234375</v>
+        <v>5762.47998046875</v>
       </c>
       <c r="C111" s="7" t="n">
-        <v>5127.931960449218</v>
+        <v>5234.142504882812</v>
       </c>
       <c r="D111" s="5" t="n">
-        <v>0.042</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="E111" s="5" t="n">
-        <v>0.03925</v>
+        <v>0.0395</v>
       </c>
       <c r="F111" s="4" t="inlineStr">
         <is>
@@ -3041,19 +3041,19 @@
     </row>
     <row r="112">
       <c r="A112" s="6" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B112" s="7" t="n">
-        <v>5762.47998046875</v>
+        <v>5705.4501953125</v>
       </c>
       <c r="C112" s="7" t="n">
-        <v>5234.142504882812</v>
+        <v>5354.407697753906</v>
       </c>
       <c r="D112" s="5" t="n">
         <v>0.04099999999999999</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>0.0395</v>
+        <v>0.03966666666666667</v>
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
@@ -3063,19 +3063,19 @@
     </row>
     <row r="113">
       <c r="A113" s="6" t="n">
-        <v>45596</v>
+        <v>45626</v>
       </c>
       <c r="B113" s="7" t="n">
-        <v>5705.4501953125</v>
+        <v>6032.3798828125</v>
       </c>
       <c r="C113" s="7" t="n">
-        <v>5354.407697753906</v>
+        <v>5455.173994140625</v>
       </c>
       <c r="D113" s="5" t="n">
-        <v>0.04099999999999999</v>
+        <v>0.042</v>
       </c>
       <c r="E113" s="5" t="n">
-        <v>0.03966666666666667</v>
+        <v>0.04008333333333333</v>
       </c>
       <c r="F113" s="4" t="inlineStr">
         <is>
@@ -3085,19 +3085,19 @@
     </row>
     <row r="114">
       <c r="A114" s="6" t="n">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="B114" s="7" t="n">
-        <v>6032.3798828125</v>
+        <v>5881.6298828125</v>
       </c>
       <c r="C114" s="7" t="n">
-        <v>5455.173994140625</v>
+        <v>5551.615600585938</v>
       </c>
       <c r="D114" s="5" t="n">
-        <v>0.042</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="E114" s="5" t="n">
-        <v>0.04008333333333333</v>
+        <v>0.04033333333333333</v>
       </c>
       <c r="F114" s="4" t="inlineStr">
         <is>
@@ -3107,19 +3107,19 @@
     </row>
     <row r="115">
       <c r="A115" s="6" t="n">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="B115" s="7" t="n">
-        <v>5881.6298828125</v>
+        <v>6040.52978515625</v>
       </c>
       <c r="C115" s="7" t="n">
-        <v>5551.615600585938</v>
+        <v>5629.953549804687</v>
       </c>
       <c r="D115" s="5" t="n">
-        <v>0.04099999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="E115" s="5" t="n">
-        <v>0.04033333333333333</v>
+        <v>0.04058333333333333</v>
       </c>
       <c r="F115" s="4" t="inlineStr">
         <is>
@@ -3129,19 +3129,19 @@
     </row>
     <row r="116">
       <c r="A116" s="6" t="n">
-        <v>45688</v>
+        <v>45716</v>
       </c>
       <c r="B116" s="7" t="n">
-        <v>6040.52978515625</v>
+        <v>5954.5</v>
       </c>
       <c r="C116" s="7" t="n">
-        <v>5629.953549804687</v>
+        <v>5720.087893066407</v>
       </c>
       <c r="D116" s="5" t="n">
-        <v>0.04</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="E116" s="5" t="n">
-        <v>0.04058333333333333</v>
+        <v>0.04075</v>
       </c>
       <c r="F116" s="4" t="inlineStr">
         <is>
@@ -3151,41 +3151,41 @@
     </row>
     <row r="117">
       <c r="A117" s="6" t="n">
-        <v>45716</v>
+        <v>45747</v>
       </c>
       <c r="B117" s="7" t="n">
-        <v>5954.5</v>
+        <v>5611.85009765625</v>
       </c>
       <c r="C117" s="7" t="n">
-        <v>5720.087893066407</v>
+        <v>5760.223447265625</v>
       </c>
       <c r="D117" s="5" t="n">
-        <v>0.04099999999999999</v>
+        <v>0.042</v>
       </c>
       <c r="E117" s="5" t="n">
-        <v>0.04075</v>
+        <v>0.04100000000000001</v>
       </c>
       <c r="F117" s="4" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>SHY</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="6" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="B118" s="7" t="n">
-        <v>5611.85009765625</v>
+        <v>5569.06005859375</v>
       </c>
       <c r="C118" s="7" t="n">
-        <v>5760.223447265625</v>
+        <v>5746.046599121094</v>
       </c>
       <c r="D118" s="5" t="n">
         <v>0.042</v>
       </c>
       <c r="E118" s="5" t="n">
-        <v>0.04100000000000001</v>
+        <v>0.04125</v>
       </c>
       <c r="F118" s="4" t="inlineStr">
         <is>
@@ -3195,38 +3195,38 @@
     </row>
     <row r="119">
       <c r="A119" s="6" t="n">
-        <v>45777</v>
+        <v>45808</v>
       </c>
       <c r="B119" s="7" t="n">
-        <v>5569.06005859375</v>
+        <v>5911.68994140625</v>
       </c>
       <c r="C119" s="7" t="n">
-        <v>5746.046599121094</v>
+        <v>5785.2375390625</v>
       </c>
       <c r="D119" s="5" t="n">
         <v>0.042</v>
       </c>
       <c r="E119" s="5" t="n">
-        <v>0.04125</v>
+        <v>0.04141666666666666</v>
       </c>
       <c r="F119" s="4" t="inlineStr">
         <is>
-          <t>SHY</t>
+          <t>QQQ</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="B120" s="7" t="n">
-        <v>5911.68994140625</v>
+        <v>6204.9501953125</v>
       </c>
       <c r="C120" s="7" t="n">
-        <v>5785.2375390625</v>
+        <v>5833.126889648437</v>
       </c>
       <c r="D120" s="5" t="n">
-        <v>0.042</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="E120" s="5" t="n">
         <v>0.04141666666666666</v>
@@ -3239,16 +3239,16 @@
     </row>
     <row r="121">
       <c r="A121" s="6" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="B121" s="7" t="n">
-        <v>6204.9501953125</v>
+        <v>6339.39013671875</v>
       </c>
       <c r="C121" s="7" t="n">
-        <v>5833.126889648437</v>
+        <v>5898.810346679687</v>
       </c>
       <c r="D121" s="5" t="n">
-        <v>0.04099999999999999</v>
+        <v>0.042</v>
       </c>
       <c r="E121" s="5" t="n">
         <v>0.04141666666666666</v>
@@ -3261,19 +3261,19 @@
     </row>
     <row r="122">
       <c r="A122" s="6" t="n">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="B122" s="7" t="n">
-        <v>6339.39013671875</v>
+        <v>6460.259765625</v>
       </c>
       <c r="C122" s="7" t="n">
-        <v>5898.810346679687</v>
+        <v>5959.465942382812</v>
       </c>
       <c r="D122" s="5" t="n">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="E122" s="5" t="n">
-        <v>0.04141666666666666</v>
+        <v>0.0415</v>
       </c>
       <c r="F122" s="4" t="inlineStr">
         <is>
@@ -3283,19 +3283,19 @@
     </row>
     <row r="123">
       <c r="A123" s="6" t="n">
-        <v>45900</v>
+        <v>45930</v>
       </c>
       <c r="B123" s="7" t="n">
-        <v>6460.259765625</v>
+        <v>6688.4599609375</v>
       </c>
       <c r="C123" s="7" t="n">
-        <v>5959.465942382812</v>
+        <v>6021.222590332031</v>
       </c>
       <c r="D123" s="5" t="n">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="E123" s="5" t="n">
-        <v>0.0415</v>
+        <v>0.04175</v>
       </c>
       <c r="F123" s="4" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="n">
-        <v>42277</v>
+        <v>42308</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="n">
-        <v>42308</v>
+        <v>42338</v>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="n">
-        <v>42338</v>
+        <v>42369</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="n">
-        <v>42369</v>
+        <v>42400</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="n">
-        <v>42400</v>
+        <v>42429</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="n">
-        <v>42429</v>
+        <v>42460</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="n">
-        <v>42460</v>
+        <v>42490</v>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="n">
-        <v>42490</v>
+        <v>42521</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="n">
-        <v>42521</v>
+        <v>42551</v>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="n">
-        <v>42551</v>
+        <v>42582</v>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
-        <v>42582</v>
+        <v>42613</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
-        <v>42613</v>
+        <v>42643</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
-        <v>42643</v>
+        <v>42674</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
-        <v>42674</v>
+        <v>42704</v>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
-        <v>42704</v>
+        <v>42735</v>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
-        <v>42735</v>
+        <v>42766</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
-        <v>42766</v>
+        <v>42794</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
-        <v>42794</v>
+        <v>42825</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="n">
-        <v>42825</v>
+        <v>42855</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
-        <v>42855</v>
+        <v>42886</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="n">
-        <v>42886</v>
+        <v>42916</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="n">
-        <v>42916</v>
+        <v>42947</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="n">
-        <v>42947</v>
+        <v>42978</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>42978</v>
+        <v>43008</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="n">
-        <v>43008</v>
+        <v>43039</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="n">
-        <v>43039</v>
+        <v>43069</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="n">
-        <v>43069</v>
+        <v>43100</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="n">
-        <v>43100</v>
+        <v>43131</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="n">
-        <v>43131</v>
+        <v>43159</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="n">
-        <v>43159</v>
+        <v>43190</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="n">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="n">
-        <v>43220</v>
+        <v>43251</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="n">
-        <v>43251</v>
+        <v>43281</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="n">
-        <v>43281</v>
+        <v>43312</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="n">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="n">
-        <v>43343</v>
+        <v>43373</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="n">
-        <v>43373</v>
+        <v>43404</v>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="n">
-        <v>43404</v>
+        <v>43434</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
@@ -3734,17 +3734,17 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="n">
-        <v>43434</v>
+        <v>43465</v>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>SHY</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="n">
-        <v>43465</v>
+        <v>43496</v>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
@@ -3754,17 +3754,17 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>SHY</t>
+          <t>QQQ</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="n">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="n">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="n">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="n">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="n">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="n">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="n">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="n">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="n">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="n">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="56">
       <c r="A56" s="6" t="n">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
@@ -3884,17 +3884,17 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="n">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>SHY</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="n">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
@@ -3904,17 +3904,17 @@
     </row>
     <row r="59">
       <c r="A59" s="6" t="n">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>SHY</t>
+          <t>QQQ</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="n">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="61">
       <c r="A61" s="6" t="n">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="62">
       <c r="A62" s="6" t="n">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="63">
       <c r="A63" s="6" t="n">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="n">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="65">
       <c r="A65" s="6" t="n">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="66">
       <c r="A66" s="6" t="n">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="67">
       <c r="A67" s="6" t="n">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="68">
       <c r="A68" s="6" t="n">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="69">
       <c r="A69" s="6" t="n">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="70">
       <c r="A70" s="6" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="71">
       <c r="A71" s="6" t="n">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="72">
       <c r="A72" s="6" t="n">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="73">
       <c r="A73" s="6" t="n">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="74">
       <c r="A74" s="6" t="n">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="75">
       <c r="A75" s="6" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="76">
       <c r="A76" s="6" t="n">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="n">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="78">
       <c r="A78" s="6" t="n">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="79">
       <c r="A79" s="6" t="n">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="80">
       <c r="A80" s="6" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="81">
       <c r="A81" s="6" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="82">
       <c r="A82" s="6" t="n">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="83">
       <c r="A83" s="6" t="n">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="84">
       <c r="A84" s="6" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="85">
       <c r="A85" s="6" t="n">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="86">
       <c r="A86" s="6" t="n">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="87">
       <c r="A87" s="6" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="88">
       <c r="A88" s="6" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="89">
       <c r="A89" s="6" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="90">
       <c r="A90" s="6" t="n">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="91">
       <c r="A91" s="6" t="n">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="92">
       <c r="A92" s="6" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="93">
       <c r="A93" s="6" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="94">
       <c r="A94" s="6" t="n">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="95">
       <c r="A95" s="6" t="n">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="96">
       <c r="A96" s="6" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="97">
       <c r="A97" s="6" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="98">
       <c r="A98" s="6" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="99">
       <c r="A99" s="6" t="n">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
@@ -4314,27 +4314,27 @@
     </row>
     <row r="100">
       <c r="A100" s="6" t="n">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>SHY</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>SHY</t>
+          <t>QQQ</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6" t="n">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="103">
       <c r="A103" s="6" t="n">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="104">
       <c r="A104" s="6" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="105">
       <c r="A105" s="6" t="n">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="106">
       <c r="A106" s="6" t="n">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="107">
       <c r="A107" s="6" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="108">
       <c r="A108" s="6" t="n">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="109">
       <c r="A109" s="6" t="n">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="110">
       <c r="A110" s="6" t="n">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="111">
       <c r="A111" s="6" t="n">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="112">
       <c r="A112" s="6" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="113">
       <c r="A113" s="6" t="n">
-        <v>45596</v>
+        <v>45626</v>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="114">
       <c r="A114" s="6" t="n">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="115">
       <c r="A115" s="6" t="n">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="116">
       <c r="A116" s="6" t="n">
-        <v>45688</v>
+        <v>45716</v>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
@@ -4484,17 +4484,17 @@
     </row>
     <row r="117">
       <c r="A117" s="6" t="n">
-        <v>45716</v>
+        <v>45747</v>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>QQQ</t>
+          <t>SHY</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="6" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
@@ -4504,17 +4504,17 @@
     </row>
     <row r="119">
       <c r="A119" s="6" t="n">
-        <v>45777</v>
+        <v>45808</v>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>SHY</t>
+          <t>QQQ</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="121">
       <c r="A121" s="6" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="122">
       <c r="A122" s="6" t="n">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="123">
       <c r="A123" s="6" t="n">
-        <v>45900</v>
+        <v>45930</v>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
